--- a/va_facility_data_2025-02-20/Kissimmee VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Kissimmee%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Kissimmee VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Kissimmee%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R5ba4465c5eb9468e9a458068162ab3f9"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R3e022635cad2439b94cd55343bbcc9bf"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R8fe8e7533ac6449383c9f8136c820b7f"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R379d27d736984919b71b5d547d4b394c"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R4d6e609170a84f828639fdc2f94f3073"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rd7e8909d770042c7bc03b6e996252d3a"/>
   </x:sheets>
 </x:workbook>
 </file>
